--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -2203,7 +2203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2370,14 +2370,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2394,16 +2386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2942,7 +2926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3045,6 +3029,39 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3195,6 +3212,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3228,6 +3251,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3242,84 +3283,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3639,42 +3602,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="53" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3866,12 +3829,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -3885,10 +3848,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3902,46 +3865,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="52"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4010,48 +3973,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="66" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="66" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="67"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4115,15 +4078,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="72"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="83"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4137,13 +4100,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="73"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="84"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4201,15 +4164,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="61"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="72"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4223,13 +4186,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="61"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4243,13 +4206,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="72"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4263,15 +4226,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4285,13 +4248,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="63"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="74"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4305,13 +4268,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4325,13 +4288,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="63"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4345,35 +4308,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="64" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="65"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4449,48 +4412,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="66" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="66" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="67"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4554,15 +4517,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="72"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="83"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4576,13 +4539,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="73"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="84"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4618,15 +4581,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="87"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4640,15 +4603,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="61"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="72"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4662,13 +4625,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="61"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4682,13 +4645,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="72"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4702,15 +4665,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4724,13 +4687,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="63"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="74"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4744,13 +4707,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4764,13 +4727,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="63"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4784,35 +4747,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="64" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="65"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4844,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4888,96 +4851,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="78" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="81"/>
+      <c r="P3" s="92"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90" t="s">
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93" t="s">
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="107" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="85"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5002,296 +4965,296 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-    </row>
-    <row r="6" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="103">
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>1</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-    </row>
-    <row r="7" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="103">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-    </row>
-    <row r="8" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="103">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>3</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-    </row>
-    <row r="9" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="103">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>4</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-    </row>
-    <row r="10" spans="1:16" s="114" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="1:16" s="38" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>5</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-    </row>
-    <row r="11" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="103">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>6</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-    </row>
-    <row r="12" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="103">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>7</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-    </row>
-    <row r="13" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>8</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-    </row>
-    <row r="14" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="103">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>9</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-    </row>
-    <row r="15" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="103">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>10</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-    </row>
-    <row r="16" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="103">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>11</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-    </row>
-    <row r="17" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="103">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>12</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-    </row>
-    <row r="18" spans="1:16" s="110" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="119" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="100" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="101" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="102"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\CSBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="内包20150101" sheetId="1" r:id="rId1"/>
     <sheet name="20151215" sheetId="2" r:id="rId2"/>
     <sheet name="20170417" sheetId="3" r:id="rId3"/>
     <sheet name="20170620" sheetId="4" r:id="rId4"/>
+    <sheet name="20170830" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
   <si>
     <r>
       <rPr>
@@ -2079,6 +2080,47 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理论产量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -2188,14 +2230,251 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成品率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=B/Cx100%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SOP-MFG-109-R01A</t>
   </si>
   <si>
-    <t xml:space="preserve">理论产量C：   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品率=B/Cx100%</t>
+    <t>生产批号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白班  夜班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期班次：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只/包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成品率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=B/Cx100%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废品：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">注：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，外观不良填写数量，不良品处理方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">报废，称重记录。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，包装项中符合填写“√”，不符合填写“×”。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他操作人员：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2203,7 +2482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2369,41 +2648,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2920,13 +3180,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3029,38 +3311,110 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3212,10 +3566,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3251,22 +3602,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3282,6 +3633,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3566,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3602,42 +3983,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="57" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="64" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3829,12 +4210,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -3848,10 +4229,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3865,46 +4246,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="63"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3973,48 +4354,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="77" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="77" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="78"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="102"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4078,15 +4459,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="83"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="107"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4100,13 +4481,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="84"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4164,15 +4545,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="72"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4186,13 +4567,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4206,13 +4587,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="72"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4226,15 +4607,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="98"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4248,13 +4629,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4268,13 +4649,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="98"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4288,13 +4669,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="98"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4308,35 +4689,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="98"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="75" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="76"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4412,48 +4793,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="77" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="77" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="78"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="102"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4517,15 +4898,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="83"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="107"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4539,13 +4920,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="84"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4581,15 +4962,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4603,15 +4984,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="72"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4625,13 +5006,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4645,13 +5026,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="72"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4665,15 +5046,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="98"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4687,13 +5068,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4707,13 +5088,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="98"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4727,13 +5108,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="98"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4747,35 +5128,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="98"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="75" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="76"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4807,14 +5188,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" customWidth="1"/>
@@ -4825,7 +5206,7 @@
     <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="4.375" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
@@ -4847,100 +5228,100 @@
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="P1" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="89" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92" t="s">
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="92"/>
+      <c r="P3" s="116"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="103" t="s">
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="106" t="s">
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="130" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="98"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="121"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -4965,296 +5346,296 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36">
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+    </row>
+    <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34">
         <v>1</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="34">
         <v>3</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+    </row>
+    <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34">
         <v>4</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:16" s="38" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+    </row>
+    <row r="10" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
         <v>5</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34">
         <v>6</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34">
         <v>7</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+    </row>
+    <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34">
         <v>8</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+    </row>
+    <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="34">
         <v>9</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+    </row>
+    <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34">
         <v>10</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+    </row>
+    <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34">
         <v>11</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
         <v>12</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16" s="37" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+    </row>
+    <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="34" t="s">
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-    </row>
-    <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5283,4 +5664,545 @@
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.51" bottom="0.15748031496062992" header="0.39370078740157483" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I9:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="O1" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="145"/>
+      <c r="F3" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="116"/>
+      <c r="K3" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="127"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="138"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+    </row>
+    <row r="7" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="47">
+        <v>1</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47">
+        <v>2</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="47">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="47">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="47">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="47">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="47">
+        <v>7</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+    </row>
+    <row r="14" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="47">
+        <v>8</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47">
+        <v>9</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="47">
+        <v>10</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+    </row>
+    <row r="17" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="47">
+        <v>11</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+    </row>
+    <row r="18" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="47">
+        <v>12</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+    </row>
+    <row r="19" spans="1:15" s="57" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="61"/>
+      <c r="M19" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+    </row>
+    <row r="20" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="150"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B23" s="65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.51" bottom="0.15748031496062992" header="0.39370078740157483" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\CSBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2481,7 +2481,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3401,9 +3401,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3545,6 +3542,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3560,81 +3632,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3663,6 +3660,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3983,42 +3983,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="81" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="88" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4210,12 +4210,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4229,10 +4229,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4246,46 +4246,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="77"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="87"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4354,48 +4354,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="101" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="101" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="102"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4459,15 +4459,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="107"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4481,13 +4481,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="108"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="107"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4545,15 +4545,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4567,13 +4567,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4587,13 +4587,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4607,15 +4607,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4629,13 +4629,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4649,13 +4649,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4669,13 +4669,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4689,35 +4689,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="99" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="100"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4793,48 +4793,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="101" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="101" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="102"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4898,15 +4898,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="107"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4920,13 +4920,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="108"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="107"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4962,15 +4962,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="111"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="110"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4984,15 +4984,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -5006,13 +5006,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -5026,13 +5026,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5046,15 +5046,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5068,13 +5068,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5088,13 +5088,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5108,13 +5108,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5128,43 +5128,38 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="99" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="100"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -5176,6 +5171,11 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5232,96 +5232,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="113" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="113" t="s">
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="116" t="s">
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="116"/>
+      <c r="P3" s="140"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126" t="s">
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="129" t="s">
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="130" t="s">
+      <c r="P4" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="138"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="121"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5346,8 +5346,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5590,55 +5590,60 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="134" t="s">
+      <c r="G18" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="119"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5653,11 +5658,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5671,7 +5671,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I9:I10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5689,8 +5689,8 @@
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5714,43 +5714,43 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="142" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="116" t="s">
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="116"/>
+      <c r="J3" s="140"/>
       <c r="K3" s="51" t="s">
         <v>102</v>
       </c>
@@ -5760,18 +5760,18 @@
       <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="146"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="145"/>
       <c r="H4" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="50" t="s">
         <v>101</v>
       </c>
@@ -5783,46 +5783,46 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="127"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="130" t="s">
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="130" t="s">
+      <c r="O5" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="138"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="121"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5847,8 +5847,8 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
     </row>
     <row r="7" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47">
@@ -5891,14 +5891,14 @@
       <c r="E8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
@@ -5912,16 +5912,16 @@
       <c r="E9" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="47">
@@ -5933,16 +5933,16 @@
       <c r="E10" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="47">
@@ -5954,16 +5954,16 @@
       <c r="E11" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
@@ -5975,16 +5975,16 @@
       <c r="E12" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
@@ -5996,16 +5996,16 @@
       <c r="E13" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
@@ -6017,16 +6017,16 @@
       <c r="E14" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
@@ -6038,16 +6038,16 @@
       <c r="E15" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
@@ -6059,16 +6059,16 @@
       <c r="E16" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
@@ -6080,16 +6080,16 @@
       <c r="E17" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
@@ -6101,23 +6101,23 @@
       <c r="E18" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15" s="57" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="63" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="58"/>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="67" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="56" t="s">
@@ -6138,55 +6138,47 @@
       <c r="I19" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="65" t="s">
         <v>109</v>
       </c>
       <c r="K19" s="62" t="s">
         <v>124</v>
       </c>
       <c r="L19" s="61"/>
-      <c r="M19" s="67" t="s">
+      <c r="M19" s="66" t="s">
         <v>127</v>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="149" t="s">
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="150"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="149"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="F20:O20"/>
     <mergeCell ref="B5:B6"/>
@@ -6199,6 +6191,14 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
